--- a/db/atriskgroupsbyCountyTX.xlsx
+++ b/db/atriskgroupsbyCountyTX.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\___UT-CodingBootcamp\Project-02-airquality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osone\OneDrive\Documents\_UTCodingBootCamp\___ProjectWeWorkingFolder\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9615"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8544"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Bell</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Harrison</t>
   </si>
   <si>
-    <t>Hays</t>
-  </si>
-  <si>
     <t>Hidalgo</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Webb</t>
   </si>
   <si>
-    <t>Totals</t>
-  </si>
-  <si>
     <t>totalPopulation</t>
   </si>
   <si>
@@ -168,6 +162,15 @@
   </si>
   <si>
     <t>cvDisease</t>
+  </si>
+  <si>
+    <t>Kleberg</t>
+  </si>
+  <si>
+    <t>Maverick</t>
+  </si>
+  <si>
+    <t>Potter</t>
   </si>
 </sst>
 </file>
@@ -563,57 +566,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +648,7 @@
         <v>48151</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -677,7 +680,7 @@
         <v>309381</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -709,7 +712,7 @@
         <v>18647</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,7 +744,7 @@
         <v>37646</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -773,7 +776,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -805,7 +808,7 @@
         <v>133497</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,7 +840,7 @@
         <v>67525</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -869,7 +872,7 @@
         <v>477557</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -901,7 +904,7 @@
         <v>64055</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -933,7 +936,7 @@
         <v>20161</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,7 +968,7 @@
         <v>183877</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>42814</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1029,137 +1032,137 @@
         <v>3254</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3">
+        <v>87048</v>
+      </c>
+      <c r="C15" s="3">
+        <v>21027</v>
+      </c>
+      <c r="D15" s="3">
+        <v>13219</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1905</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4854</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3864</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5870</v>
+      </c>
+      <c r="I15" s="3">
+        <v>8086</v>
+      </c>
+      <c r="J15" s="3">
+        <v>15181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B16" s="3">
         <v>123024</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="3">
         <v>31638</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D16" s="3">
         <v>17145</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="3">
         <v>2867</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F16" s="3">
         <v>6702</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G16" s="3">
         <v>5159</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H16" s="3">
         <v>7680</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I16" s="3">
         <v>10597</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J16" s="3">
         <v>20233</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="3">
         <v>4336853</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="3">
         <v>1187625</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>388443</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>107603</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>228402</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>162296</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <v>218480</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="3">
         <v>319335</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J17" s="3">
         <v>788276</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="3">
         <v>66886</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="3">
         <v>16896</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D18" s="3">
         <v>9713</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="3">
         <v>1531</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F18" s="3">
         <v>3671</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" s="3">
         <v>2888</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H18" s="3">
         <v>4350</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I18" s="3">
         <v>6005</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J18" s="3">
         <v>12103</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B18" s="3">
-        <v>176026</v>
-      </c>
-      <c r="C18" s="3">
-        <v>42265</v>
-      </c>
-      <c r="D18" s="3">
-        <v>16931</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3829</v>
-      </c>
-      <c r="F18" s="3">
-        <v>9704</v>
-      </c>
-      <c r="G18" s="3">
-        <v>6785</v>
-      </c>
-      <c r="H18" s="3">
-        <v>9127</v>
-      </c>
-      <c r="I18" s="3">
-        <v>13198</v>
-      </c>
-      <c r="J18" s="3">
-        <v>24040</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="B19" s="3">
         <v>815996</v>
@@ -1189,9 +1192,9 @@
         <v>274209</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3">
         <v>52905</v>
@@ -1221,9 +1224,9 @@
         <v>7335</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3">
         <v>87048</v>
@@ -1253,9 +1256,9 @@
         <v>15181</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3">
         <v>252358</v>
@@ -1285,9 +1288,9 @@
         <v>53567</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3">
         <v>154707</v>
@@ -1317,9 +1320,9 @@
         <v>19521</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3">
         <v>108568</v>
@@ -1349,484 +1352,548 @@
         <v>12510</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="3">
+        <v>87048</v>
+      </c>
+      <c r="C25" s="3">
+        <v>21027</v>
+      </c>
+      <c r="D25" s="3">
+        <v>13219</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1905</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4854</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3864</v>
+      </c>
+      <c r="H25" s="3">
+        <v>5870</v>
+      </c>
+      <c r="I25" s="3">
+        <v>8086</v>
+      </c>
+      <c r="J25" s="3">
+        <v>15181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C26" s="3">
+        <v>9476</v>
+      </c>
+      <c r="D26" s="3">
+        <v>9111</v>
+      </c>
+      <c r="E26" s="4">
+        <v>859</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2693</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2262</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3640</v>
+      </c>
+      <c r="I26" s="3">
+        <v>4849</v>
+      </c>
+      <c r="J26" s="3">
+        <v>7550</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3">
+        <v>241481</v>
+      </c>
+      <c r="C27" s="3">
+        <v>59957</v>
+      </c>
+      <c r="D27" s="3">
+        <v>31707</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5432</v>
+      </c>
+      <c r="F27" s="3">
+        <v>13280</v>
+      </c>
+      <c r="G27" s="3">
+        <v>9949</v>
+      </c>
+      <c r="H27" s="3">
+        <v>14508</v>
+      </c>
+      <c r="I27" s="3">
+        <v>20126</v>
+      </c>
+      <c r="J27" s="3">
+        <v>48466</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
-        <v>241481</v>
-      </c>
-      <c r="C25" s="3">
-        <v>59957</v>
-      </c>
-      <c r="D25" s="3">
-        <v>31707</v>
-      </c>
-      <c r="E25" s="3">
-        <v>5432</v>
-      </c>
-      <c r="F25" s="3">
-        <v>13280</v>
-      </c>
-      <c r="G25" s="3">
-        <v>9949</v>
-      </c>
-      <c r="H25" s="3">
-        <v>14508</v>
-      </c>
-      <c r="I25" s="3">
-        <v>20126</v>
-      </c>
-      <c r="J25" s="3">
-        <v>48466</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B28" s="3">
+        <v>499137</v>
+      </c>
+      <c r="C28" s="3">
+        <v>134673</v>
+      </c>
+      <c r="D28" s="3">
+        <v>58518</v>
+      </c>
+      <c r="E28" s="3">
+        <v>12202</v>
+      </c>
+      <c r="F28" s="3">
+        <v>26616</v>
+      </c>
+      <c r="G28" s="3">
+        <v>20330</v>
+      </c>
+      <c r="H28" s="3">
+        <v>29286</v>
+      </c>
+      <c r="I28" s="3">
+        <v>41699</v>
+      </c>
+      <c r="J28" s="3">
+        <v>58358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
-        <v>499137</v>
-      </c>
-      <c r="C26" s="3">
-        <v>134673</v>
-      </c>
-      <c r="D26" s="3">
-        <v>58518</v>
-      </c>
-      <c r="E26" s="3">
-        <v>12202</v>
-      </c>
-      <c r="F26" s="3">
-        <v>26616</v>
-      </c>
-      <c r="G26" s="3">
-        <v>20330</v>
-      </c>
-      <c r="H26" s="3">
-        <v>29286</v>
-      </c>
-      <c r="I26" s="3">
-        <v>41699</v>
-      </c>
-      <c r="J26" s="3">
-        <v>58358</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B29" s="3">
+        <v>48038</v>
+      </c>
+      <c r="C29" s="3">
+        <v>12772</v>
+      </c>
+      <c r="D29" s="3">
+        <v>7456</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1157</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2597</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2080</v>
+      </c>
+      <c r="H29" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I29" s="3">
+        <v>4361</v>
+      </c>
+      <c r="J29" s="3">
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3">
-        <v>48038</v>
-      </c>
-      <c r="C27" s="3">
-        <v>12772</v>
-      </c>
-      <c r="D27" s="3">
-        <v>7456</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1157</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2597</v>
-      </c>
-      <c r="G27" s="3">
-        <v>2080</v>
-      </c>
-      <c r="H27" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>4361</v>
-      </c>
-      <c r="J27" s="3">
-        <v>10990</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B30" s="3">
+        <v>352107</v>
+      </c>
+      <c r="C30" s="3">
+        <v>89375</v>
+      </c>
+      <c r="D30" s="3">
+        <v>45044</v>
+      </c>
+      <c r="E30" s="3">
+        <v>8098</v>
+      </c>
+      <c r="F30" s="3">
+        <v>19216</v>
+      </c>
+      <c r="G30" s="3">
+        <v>14592</v>
+      </c>
+      <c r="H30" s="3">
+        <v>21264</v>
+      </c>
+      <c r="I30" s="3">
+        <v>29783</v>
+      </c>
+      <c r="J30" s="3">
+        <v>62942</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
-        <v>352107</v>
-      </c>
-      <c r="C28" s="3">
-        <v>89375</v>
-      </c>
-      <c r="D28" s="3">
-        <v>45044</v>
-      </c>
-      <c r="E28" s="3">
-        <v>8098</v>
-      </c>
-      <c r="F28" s="3">
-        <v>19216</v>
-      </c>
-      <c r="G28" s="3">
-        <v>14592</v>
-      </c>
-      <c r="H28" s="3">
-        <v>21264</v>
-      </c>
-      <c r="I28" s="3">
-        <v>29783</v>
-      </c>
-      <c r="J28" s="3">
-        <v>62942</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="B31" s="3">
+        <v>82957</v>
+      </c>
+      <c r="C31" s="3">
+        <v>20378</v>
+      </c>
+      <c r="D31" s="3">
+        <v>12314</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1846</v>
+      </c>
+      <c r="F31" s="3">
+        <v>4598</v>
+      </c>
+      <c r="G31" s="3">
+        <v>3648</v>
+      </c>
+      <c r="H31" s="3">
+        <v>5517</v>
+      </c>
+      <c r="I31" s="3">
+        <v>7620</v>
+      </c>
+      <c r="J31" s="3">
+        <v>12364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="3">
-        <v>82957</v>
-      </c>
-      <c r="C29" s="3">
-        <v>20378</v>
-      </c>
-      <c r="D29" s="3">
-        <v>12314</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1846</v>
-      </c>
-      <c r="F29" s="3">
-        <v>4598</v>
-      </c>
-      <c r="G29" s="3">
-        <v>3648</v>
-      </c>
-      <c r="H29" s="3">
-        <v>5517</v>
-      </c>
-      <c r="I29" s="3">
-        <v>7620</v>
-      </c>
-      <c r="J29" s="3">
-        <v>12364</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B32" s="3">
+        <v>121418</v>
+      </c>
+      <c r="C32" s="3">
+        <v>29624</v>
+      </c>
+      <c r="D32" s="3">
+        <v>17283</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2684</v>
+      </c>
+      <c r="F32" s="3">
+        <v>6737</v>
+      </c>
+      <c r="G32" s="3">
+        <v>5368</v>
+      </c>
+      <c r="H32" s="3">
+        <v>8051</v>
+      </c>
+      <c r="I32" s="3">
+        <v>11252</v>
+      </c>
+      <c r="J32" s="3">
+        <v>13886</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="3">
-        <v>121418</v>
-      </c>
-      <c r="C30" s="3">
-        <v>29624</v>
-      </c>
-      <c r="D30" s="3">
-        <v>17283</v>
-      </c>
-      <c r="E30" s="3">
-        <v>2684</v>
-      </c>
-      <c r="F30" s="3">
-        <v>6737</v>
-      </c>
-      <c r="G30" s="3">
-        <v>5368</v>
-      </c>
-      <c r="H30" s="3">
-        <v>8051</v>
-      </c>
-      <c r="I30" s="3">
-        <v>11252</v>
-      </c>
-      <c r="J30" s="3">
-        <v>13886</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B33" s="3">
+        <v>45790</v>
+      </c>
+      <c r="C33" s="3">
+        <v>9476</v>
+      </c>
+      <c r="D33" s="3">
+        <v>9111</v>
+      </c>
+      <c r="E33" s="4">
+        <v>859</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2693</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2262</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3640</v>
+      </c>
+      <c r="I33" s="3">
+        <v>4849</v>
+      </c>
+      <c r="J33" s="3">
+        <v>7550</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="3">
+        <v>85245</v>
+      </c>
+      <c r="C34" s="3">
+        <v>24200</v>
+      </c>
+      <c r="D34" s="3">
+        <v>9537</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2193</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4455</v>
+      </c>
+      <c r="G34" s="3">
+        <v>3395</v>
+      </c>
+      <c r="H34" s="3">
+        <v>4863</v>
+      </c>
+      <c r="I34" s="3">
+        <v>6958</v>
+      </c>
+      <c r="J34" s="3">
+        <v>5558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="3">
-        <v>45790</v>
-      </c>
-      <c r="C31" s="3">
-        <v>9476</v>
-      </c>
-      <c r="D31" s="3">
-        <v>9111</v>
-      </c>
-      <c r="E31" s="4">
-        <v>859</v>
-      </c>
-      <c r="F31" s="3">
-        <v>2693</v>
-      </c>
-      <c r="G31" s="3">
-        <v>2262</v>
-      </c>
-      <c r="H31" s="3">
-        <v>3640</v>
-      </c>
-      <c r="I31" s="3">
-        <v>4849</v>
-      </c>
-      <c r="J31" s="3">
-        <v>7550</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="B35" s="3">
+        <v>126474</v>
+      </c>
+      <c r="C35" s="3">
+        <v>31062</v>
+      </c>
+      <c r="D35" s="3">
+        <v>16784</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2814</v>
+      </c>
+      <c r="F35" s="3">
+        <v>6983</v>
+      </c>
+      <c r="G35" s="3">
+        <v>5309</v>
+      </c>
+      <c r="H35" s="3">
+        <v>7779</v>
+      </c>
+      <c r="I35" s="3">
+        <v>10839</v>
+      </c>
+      <c r="J35" s="3">
+        <v>13602</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="3">
-        <v>126474</v>
-      </c>
-      <c r="C32" s="3">
-        <v>31062</v>
-      </c>
-      <c r="D32" s="3">
-        <v>16784</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2814</v>
-      </c>
-      <c r="F32" s="3">
-        <v>6983</v>
-      </c>
-      <c r="G32" s="3">
-        <v>5309</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7779</v>
-      </c>
-      <c r="I32" s="3">
-        <v>10839</v>
-      </c>
-      <c r="J32" s="3">
-        <v>13602</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="B36" s="3">
+        <v>85245</v>
+      </c>
+      <c r="C36" s="3">
+        <v>24200</v>
+      </c>
+      <c r="D36" s="3">
+        <v>9537</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2193</v>
+      </c>
+      <c r="F36" s="3">
+        <v>4455</v>
+      </c>
+      <c r="G36" s="3">
+        <v>3395</v>
+      </c>
+      <c r="H36" s="3">
+        <v>4863</v>
+      </c>
+      <c r="I36" s="3">
+        <v>6958</v>
+      </c>
+      <c r="J36" s="3">
+        <v>5558</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="3">
-        <v>85245</v>
-      </c>
-      <c r="C33" s="3">
-        <v>24200</v>
-      </c>
-      <c r="D33" s="3">
-        <v>9537</v>
-      </c>
-      <c r="E33" s="3">
-        <v>2193</v>
-      </c>
-      <c r="F33" s="3">
-        <v>4455</v>
-      </c>
-      <c r="G33" s="3">
-        <v>3395</v>
-      </c>
-      <c r="H33" s="3">
-        <v>4863</v>
-      </c>
-      <c r="I33" s="3">
-        <v>6958</v>
-      </c>
-      <c r="J33" s="3">
-        <v>5558</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="B37" s="3">
+        <v>216080</v>
+      </c>
+      <c r="C37" s="3">
+        <v>54210</v>
+      </c>
+      <c r="D37" s="3">
+        <v>32873</v>
+      </c>
+      <c r="E37" s="3">
+        <v>4912</v>
+      </c>
+      <c r="F37" s="3">
+        <v>11902</v>
+      </c>
+      <c r="G37" s="3">
+        <v>9303</v>
+      </c>
+      <c r="H37" s="3">
+        <v>14129</v>
+      </c>
+      <c r="I37" s="3">
+        <v>19250</v>
+      </c>
+      <c r="J37" s="3">
+        <v>35564</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="3">
-        <v>216080</v>
-      </c>
-      <c r="C34" s="3">
-        <v>54210</v>
-      </c>
-      <c r="D34" s="3">
-        <v>32873</v>
-      </c>
-      <c r="E34" s="3">
-        <v>4912</v>
-      </c>
-      <c r="F34" s="3">
-        <v>11902</v>
-      </c>
-      <c r="G34" s="3">
-        <v>9303</v>
-      </c>
-      <c r="H34" s="3">
-        <v>14129</v>
-      </c>
-      <c r="I34" s="3">
-        <v>19250</v>
-      </c>
-      <c r="J34" s="3">
-        <v>35564</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="B38" s="3">
+        <v>1911541</v>
+      </c>
+      <c r="C38" s="3">
+        <v>522683</v>
+      </c>
+      <c r="D38" s="3">
+        <v>189414</v>
+      </c>
+      <c r="E38" s="3">
+        <v>47357</v>
+      </c>
+      <c r="F38" s="3">
+        <v>100974</v>
+      </c>
+      <c r="G38" s="3">
+        <v>73732</v>
+      </c>
+      <c r="H38" s="3">
+        <v>101859</v>
+      </c>
+      <c r="I38" s="3">
+        <v>147464</v>
+      </c>
+      <c r="J38" s="3">
+        <v>286019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="3">
-        <v>1911541</v>
-      </c>
-      <c r="C35" s="3">
-        <v>522683</v>
-      </c>
-      <c r="D35" s="3">
-        <v>189414</v>
-      </c>
-      <c r="E35" s="3">
-        <v>47357</v>
-      </c>
-      <c r="F35" s="3">
-        <v>100974</v>
-      </c>
-      <c r="G35" s="3">
-        <v>73732</v>
-      </c>
-      <c r="H35" s="3">
-        <v>101859</v>
-      </c>
-      <c r="I35" s="3">
-        <v>147464</v>
-      </c>
-      <c r="J35" s="3">
-        <v>286019</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="B39" s="3">
+        <v>1120954</v>
+      </c>
+      <c r="C39" s="3">
+        <v>261205</v>
+      </c>
+      <c r="D39" s="3">
+        <v>91305</v>
+      </c>
+      <c r="E39" s="3">
+        <v>23666</v>
+      </c>
+      <c r="F39" s="3">
+        <v>62152</v>
+      </c>
+      <c r="G39" s="3">
+        <v>42454</v>
+      </c>
+      <c r="H39" s="3">
+        <v>54991</v>
+      </c>
+      <c r="I39" s="3">
+        <v>81462</v>
+      </c>
+      <c r="J39" s="3">
+        <v>174374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="3">
-        <v>1120954</v>
-      </c>
-      <c r="C36" s="3">
-        <v>261205</v>
-      </c>
-      <c r="D36" s="3">
-        <v>91305</v>
-      </c>
-      <c r="E36" s="3">
-        <v>23666</v>
-      </c>
-      <c r="F36" s="3">
-        <v>62152</v>
-      </c>
-      <c r="G36" s="3">
-        <v>42454</v>
-      </c>
-      <c r="H36" s="3">
-        <v>54991</v>
-      </c>
-      <c r="I36" s="3">
-        <v>81462</v>
-      </c>
-      <c r="J36" s="3">
-        <v>174374</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="B40" s="3">
+        <v>90028</v>
+      </c>
+      <c r="C40" s="3">
+        <v>23457</v>
+      </c>
+      <c r="D40" s="3">
+        <v>12793</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2125</v>
+      </c>
+      <c r="F40" s="3">
+        <v>4887</v>
+      </c>
+      <c r="G40" s="3">
+        <v>3808</v>
+      </c>
+      <c r="H40" s="3">
+        <v>5711</v>
+      </c>
+      <c r="I40" s="3">
+        <v>7874</v>
+      </c>
+      <c r="J40" s="3">
+        <v>14005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="3">
-        <v>90028</v>
-      </c>
-      <c r="C37" s="3">
-        <v>23457</v>
-      </c>
-      <c r="D37" s="3">
-        <v>12793</v>
-      </c>
-      <c r="E37" s="3">
-        <v>2125</v>
-      </c>
-      <c r="F37" s="3">
-        <v>4887</v>
-      </c>
-      <c r="G37" s="3">
-        <v>3808</v>
-      </c>
-      <c r="H37" s="3">
-        <v>5711</v>
-      </c>
-      <c r="I37" s="3">
-        <v>7874</v>
-      </c>
-      <c r="J37" s="3">
-        <v>14005</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3">
+      <c r="B41" s="3">
         <v>262495</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C41" s="3">
         <v>90244</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D41" s="3">
         <v>21951</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E41" s="3">
         <v>8176</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F41" s="3">
         <v>12497</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G41" s="3">
         <v>8717</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H41" s="3">
         <v>11730</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I41" s="3">
         <v>16923</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J41" s="3">
         <v>79270</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3">
-        <v>19752601</v>
-      </c>
-      <c r="C39" s="3">
-        <v>5362051</v>
-      </c>
-      <c r="D39" s="3">
-        <v>2021500</v>
-      </c>
-      <c r="E39" s="3">
-        <v>485819</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1046814</v>
-      </c>
-      <c r="G39" s="3">
-        <v>760786</v>
-      </c>
-      <c r="H39" s="3">
-        <v>1055158</v>
-      </c>
-      <c r="I39" s="3">
-        <v>1516038</v>
-      </c>
-      <c r="J39" s="3">
-        <v>3457861</v>
       </c>
     </row>
   </sheetData>
